--- a/data/trans_camb/IP1020-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1020-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,07</t>
+          <t>0,0; 19,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 1,27</t>
+          <t>0,0; 11,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,97</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-70,44%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-31,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>120,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>77,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,22%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>105,34%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 123,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-84,34; 154,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 474,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,11; 673,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,93; 397,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,06; 554,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,28; 120,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-60,88; 144,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 318,93</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,02</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,39</t>
+          <t>-3,68; 0,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,68</t>
+          <t>-2,86; 1,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,86</t>
+          <t>-0,1; 5,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,12</t>
+          <t>-0,69; 3,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 2,26</t>
+          <t>-1,41; 2,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,22</t>
+          <t>-0,86; 3,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,74</t>
+          <t>-1,73; 1,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,41</t>
+          <t>-1,65; 1,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,61</t>
+          <t>0,11; 3,97</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>318,9%</t>
+          <t>-70,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>238,16%</t>
+          <t>-31,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>453,95%</t>
+          <t>120,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>620,23%</t>
+          <t>77,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>191,84%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>650,51%</t>
+          <t>71,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>429,85%</t>
+          <t>-10,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>221,05%</t>
+          <t>-7,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>527,27%</t>
+          <t>105,34%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,79; —</t>
+          <t>-100,0; 123,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,34; 154,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,58; —</t>
+          <t>-15,5; 474,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,11; 673,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,93; 397,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,06; 554,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>48,96; 2034,92</t>
+          <t>-63,28; 120,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 1261,6</t>
+          <t>-60,88; 144,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>95,28; 2279,97</t>
+          <t>-1,44; 318,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,38</t>
+          <t>-0,64; 1,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 3,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 5,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 4,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 3,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,58; 8,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,91</t>
+          <t>0,4; 2,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 2,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 5,77</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>107,59%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>385,07%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>656,62%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>787,29%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>878,17%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2116,0%</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>2,67</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,65</t>
+          <t>0,39; 4,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 3,3</t>
+          <t>-0,06; 3,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,08</t>
+          <t>0,7; 5,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,74</t>
+          <t>0,68; 5,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,81</t>
+          <t>-0,41; 2,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,87</t>
+          <t>0,7; 5,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,73</t>
+          <t>0,86; 3,74</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,91</t>
+          <t>-0,04; 2,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,77</t>
+          <t>1,22; 4,61</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>107,59%</t>
+          <t>318,9%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>385,07%</t>
+          <t>238,16%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>656,62%</t>
+          <t>453,95%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>620,23%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>191,84%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>650,51%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>787,29%</t>
+          <t>429,85%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>878,17%</t>
+          <t>221,05%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2116,0%</t>
+          <t>527,27%</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,79; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,96; 2034,92</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,18; 1261,6</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>95,28; 2279,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1020-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1020-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,38</t>
+          <t>0,0; 18,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,91</t>
+          <t>0,0; 11,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,81</t>
+          <t>0,0; 3,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -911,37 +911,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,66</t>
+          <t>0,27; 3,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 4,8</t>
+          <t>-1,28; 5,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 0,0</t>
+          <t>-4,33; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 7,9</t>
+          <t>-0,59; 7,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,39</t>
+          <t>-0,3; 3,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,99</t>
+          <t>-0,9; 1,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,77</t>
+          <t>0,39; 4,55</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-67,37; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,22; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,25; —</t>
+          <t>-23,88; —</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,07</t>
+          <t>-3,71; 0,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,21</t>
+          <t>-2,83; 1,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,7</t>
+          <t>-0,15; 5,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 3,88</t>
+          <t>-0,91; 3,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,71</t>
+          <t>-1,49; 2,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 3,81</t>
+          <t>-0,92; 3,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 1,27</t>
+          <t>-1,75; 1,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 1,41</t>
+          <t>-1,55; 1,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 3,97</t>
+          <t>0,18; 3,84</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 123,82</t>
+          <t>-100,0; 58,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-84,34; 154,04</t>
+          <t>-82,75; 164,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 474,86</t>
+          <t>-23,16; 502,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,11; 673,21</t>
+          <t>-41,75; 686,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,93; 397,65</t>
+          <t>-66,04; 412,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,06; 554,65</t>
+          <t>-49,44; 566,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,28; 120,19</t>
+          <t>-64,41; 125,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,88; 144,31</t>
+          <t>-58,65; 104,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 318,93</t>
+          <t>2,38; 314,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,65</t>
+          <t>-0,65; 1,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 3,3</t>
+          <t>-0,13; 3,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,08</t>
+          <t>0,55; 4,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,74</t>
+          <t>0,88; 5,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,81</t>
+          <t>0,65; 3,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,87</t>
+          <t>2,61; 8,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,73</t>
+          <t>0,49; 2,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,91</t>
+          <t>0,56; 2,87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,77</t>
+          <t>2,08; 5,85</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,39</t>
+          <t>0,36; 4,62</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,68</t>
+          <t>-0,09; 3,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,86</t>
+          <t>0,74; 6,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,12</t>
+          <t>0,4; 4,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 2,26</t>
+          <t>-0,37; 2,55</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,22</t>
+          <t>0,6; 5,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,74</t>
+          <t>0,86; 3,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 2,41</t>
+          <t>0,11; 2,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,61</t>
+          <t>1,17; 4,67</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,79; —</t>
+          <t>-41,73; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,31; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-2,58; —</t>
+          <t>-14,79; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>48,96; 2034,92</t>
+          <t>19,71; 2119,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 1261,6</t>
+          <t>-19,9; 1273,42</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>95,28; 2279,97</t>
+          <t>70,05; 2830,52</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,38</t>
+          <t>-0,29; 1,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,9</t>
+          <t>-0,11; 1,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,75</t>
+          <t>1,18; 3,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,04</t>
+          <t>0,72; 3,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,47</t>
+          <t>-0,37; 1,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,33</t>
+          <t>1,45; 4,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,85</t>
+          <t>0,39; 1,84</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,04; 1,35</t>
+          <t>-0,0; 1,3</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,62; 3,51</t>
+          <t>1,55; 3,47</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-38,49; 260,01</t>
+          <t>-29,61; 264,6</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 346,06</t>
+          <t>-17,79; 319,76</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>87,34; 732,52</t>
+          <t>79,85; 774,92</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>48,72; 745,99</t>
+          <t>44,02; 707,57</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-28,3; 324,19</t>
+          <t>-36,71; 296,54</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>99,29; 956,81</t>
+          <t>100,67; 1040,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>37,91; 316,97</t>
+          <t>28,23; 297,7</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 251,82</t>
+          <t>-3,34; 232,28</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>155,75; 615,85</t>
+          <t>123,24; 580,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1020-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1020-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,62</t>
+          <t>0,0; 16,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,8</t>
+          <t>0,0; 8,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,35</t>
+          <t>0,0; 3,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,28</t>
+          <t>0,53; 4,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,36</t>
+          <t>0,32; 3,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 5,26</t>
+          <t>-1,3; 5,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 0,0</t>
+          <t>-4,22; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 7,8</t>
+          <t>-0,44; 7,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,3</t>
+          <t>-0,22; 3,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,93</t>
+          <t>-0,91; 2,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 4,55</t>
+          <t>0,27; 4,68</t>
         </is>
       </c>
     </row>
@@ -1032,12 +1032,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,34; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,88; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 0,01</t>
+          <t>-3,68; 0,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,16</t>
+          <t>-2,86; 1,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 5,63</t>
+          <t>0,05; 5,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,8</t>
+          <t>-0,99; 3,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,69</t>
+          <t>-1,48; 2,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,88</t>
+          <t>-1,24; 3,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 1,39</t>
+          <t>-1,89; 1,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 1,21</t>
+          <t>-1,71; 1,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 3,84</t>
+          <t>0,25; 3,87</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 58,25</t>
+          <t>-100,0; 99,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-82,75; 164,45</t>
+          <t>-89,1; 104,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 502,78</t>
+          <t>-11,23; 480,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,75; 686,36</t>
+          <t>-51,09; 611,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-66,04; 412,74</t>
+          <t>-62,07; 428,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,44; 566,33</t>
+          <t>-56,97; 591,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-64,41; 125,86</t>
+          <t>-66,23; 107,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,65; 104,14</t>
+          <t>-62,88; 109,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 314,66</t>
+          <t>6,14; 324,32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,91</t>
+          <t>-0,68; 1,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,51</t>
+          <t>-0,04; 3,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,97</t>
+          <t>0,56; 5,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,13</t>
+          <t>0,9; 4,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,64</t>
+          <t>0,6; 3,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,53</t>
+          <t>2,56; 8,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,68</t>
+          <t>0,41; 2,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,87</t>
+          <t>0,52; 2,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,85</t>
+          <t>2,11; 5,63</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,62</t>
+          <t>0,3; 4,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 3,77</t>
+          <t>-0,12; 3,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,13</t>
+          <t>0,81; 6,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,75</t>
+          <t>0,51; 4,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,55</t>
+          <t>-0,37; 2,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,37</t>
+          <t>0,63; 5,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,98</t>
+          <t>0,79; 3,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,45</t>
+          <t>0,03; 2,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,67</t>
+          <t>1,11; 4,56</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-41,73; —</t>
+          <t>-44,99; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-62,31; —</t>
+          <t>-61,2; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,79; —</t>
+          <t>-14,22; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>19,71; 2119,83</t>
+          <t>37,33; 2254,81</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 1273,42</t>
+          <t>-26,82; inf</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>70,05; 2830,52</t>
+          <t>82,48; 2648,8</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,42</t>
+          <t>-0,38; 1,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 1,82</t>
+          <t>-0,02; 1,81</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,98</t>
+          <t>1,15; 3,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,03</t>
+          <t>0,82; 3,06</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,31</t>
+          <t>-0,28; 1,47</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,22</t>
+          <t>1,47; 4,2</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,84</t>
+          <t>0,43; 1,86</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 1,3</t>
+          <t>0,07; 1,34</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,47</t>
+          <t>1,74; 3,57</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-29,61; 264,6</t>
+          <t>-36,18; 269,11</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-17,79; 319,76</t>
+          <t>-10,19; 349,38</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>79,85; 774,92</t>
+          <t>78,22; 695,68</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>44,02; 707,57</t>
+          <t>48,02; 668,37</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 296,54</t>
+          <t>-31,82; 362,54</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>100,67; 1040,0</t>
+          <t>99,04; 952,75</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>28,23; 297,7</t>
+          <t>34,73; 307,24</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 232,28</t>
+          <t>3,74; 236,45</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>123,24; 580,11</t>
+          <t>140,44; 580,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1020-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP1020-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,67</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,02</t>
+          <t>-1,09; 4,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 7,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 4,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 4,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 2,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,37</t>
+          <t>0,05; 3,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,75; 1,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 3,76</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>114,85%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>233,46%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>276,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>335,44%</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,82; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,99; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>2,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,71</t>
+          <t>-0,69; 3,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,84</t>
+          <t>-1,41; 2,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,51</t>
+          <t>-0,84; 3,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 5,23</t>
+          <t>-3,68; 0,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 0,0</t>
+          <t>-2,86; 1,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 7,97</t>
+          <t>-0,05; 5,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 3,36</t>
+          <t>-1,73; 1,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 2,19</t>
+          <t>-1,65; 1,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,68</t>
+          <t>0,16; 4,02</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>77,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>72,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>114,91%</t>
+          <t>-70,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-31,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>216,66%</t>
+          <t>123,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>208,15%</t>
+          <t>-10,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,39%</t>
+          <t>-7,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>327,6%</t>
+          <t>108,14%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,11; 673,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,93; 397,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,02; 557,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 123,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,34; 154,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-15,23; 476,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-68,34; —</t>
+          <t>-63,28; 120,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,88; 144,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 336,12</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>3,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 0,23</t>
+          <t>0,8; 4,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,14</t>
+          <t>0,59; 3,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 5,58</t>
+          <t>2,03; 7,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 3,88</t>
+          <t>-0,64; 1,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,45</t>
+          <t>-0,19; 3,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,61</t>
+          <t>0,57; 4,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 1,2</t>
+          <t>0,4; 2,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,22</t>
+          <t>0,61; 2,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,87</t>
+          <t>1,82; 5,33</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-70,44%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-31,67%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>120,7%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>77,75%</t>
+          <t>107,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>385,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>71,01%</t>
+          <t>632,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-10,22%</t>
+          <t>787,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>878,17%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>105,34%</t>
+          <t>1919,21%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 99,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-89,1; 104,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 480,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-51,09; 611,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,07; 428,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,97; 591,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-66,23; 107,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-62,88; 109,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,14; 324,32</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>2,66</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 1,77</t>
+          <t>0,68; 5,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 3,31</t>
+          <t>-0,41; 2,26</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,01</t>
+          <t>0,69; 5,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,8</t>
+          <t>0,39; 4,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,76</t>
+          <t>-0,06; 3,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 8,61</t>
+          <t>0,69; 5,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,59</t>
+          <t>0,86; 3,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,77</t>
+          <t>-0,04; 2,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,63</t>
+          <t>1,21; 4,56</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>107,59%</t>
+          <t>620,23%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>385,07%</t>
+          <t>191,84%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>656,62%</t>
+          <t>634,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>318,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>238,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>455,34%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>787,29%</t>
+          <t>429,85%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>878,17%</t>
+          <t>221,05%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2116,0%</t>
+          <t>524,67%</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,79; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,29 +1464,29 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,96; 2034,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,18; 1261,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>91,61; 2264,52</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>2,46</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 4,76</t>
+          <t>0,76; 3,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,92</t>
+          <t>-0,29; 1,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,17</t>
+          <t>1,33; 4,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,67</t>
+          <t>-0,46; 1,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,3</t>
+          <t>-0,01; 1,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,63; 5,5</t>
+          <t>1,18; 3,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,63</t>
+          <t>0,51; 1,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,52</t>
+          <t>0,04; 1,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,56</t>
+          <t>1,57; 3,38</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>318,9%</t>
+          <t>226,84%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>238,16%</t>
+          <t>66,41%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>453,95%</t>
+          <t>324,27%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>620,23%</t>
+          <t>56,77%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>191,84%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>650,51%</t>
+          <t>264,08%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>429,85%</t>
+          <t>134,25%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>221,05%</t>
+          <t>79,79%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>527,27%</t>
+          <t>291,23%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-44,99; —</t>
+          <t>48,72; 745,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-61,2; —</t>
+          <t>-28,3; 324,19</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,22; —</t>
+          <t>90,64; 920,37</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,49; 260,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,53; 346,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>85,48; 714,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>37,33; 2254,81</t>
+          <t>37,91; 316,97</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,82; inf</t>
+          <t>-3,66; 251,82</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>82,48; 2648,8</t>
+          <t>149,64; 594,62</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,41</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,38; 1,38</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,02; 1,81</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 3,7</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 3,06</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 1,47</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 4,2</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 1,86</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 1,34</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 3,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>56,77%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>91,04%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>269,97%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>226,84%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>66,41%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>339,77%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>134,25%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>79,79%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>301,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-36,18; 269,11</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-10,19; 349,38</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>78,22; 695,68</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>48,02; 668,37</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-31,82; 362,54</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>99,04; 952,75</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>34,73; 307,24</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>3,74; 236,45</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>140,44; 580,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
